--- a/happiness-and-alcohol-consumption/HappinessAlcoholConsumption.xlsx
+++ b/happiness-and-alcohol-consumption/HappinessAlcoholConsumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\2 semestre\Ciencias dos Dados\Projeto 3\CD_Projeto3\happiness-and-alcohol-consumption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad\OneDrive\Documentos\Insper\2 Semestre\2.CienDados\Projeto 3\CD_Projeto3\happiness-and-alcohol-consumption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFB2681-AC16-4426-96F1-BE8E49C7F641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0022E064-52FA-4D24-8CF2-A4A5C363AC8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HappinessAlcoholConsumption" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +594,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -940,8 +948,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1296,14 +1305,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I123"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1382,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1448,7 +1469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1498,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1563,8 +1584,9 @@
       <c r="I9">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1738,7 +1760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +1789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +1992,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1999,7 +2021,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2028,7 +2050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2086,7 +2108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2166,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2202,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2231,7 +2253,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2260,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2347,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2376,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2405,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2434,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2463,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2521,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2550,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2579,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2637,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2666,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2695,7 +2717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2753,7 +2775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2782,7 +2804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2811,7 +2833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2840,7 +2862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2898,7 +2920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2956,7 +2978,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2985,7 +3007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -3014,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3043,7 +3065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -3072,7 +3094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -3101,7 +3123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -3130,7 +3152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3159,7 +3181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3188,7 +3210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3217,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -3246,7 +3268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -3275,7 +3297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>89</v>
       </c>
@@ -3304,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -3362,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3391,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -3420,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -3449,7 +3471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -3507,7 +3529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -3536,7 +3558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -3565,7 +3587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -3594,7 +3616,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -3623,7 +3645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -3652,7 +3674,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -3681,7 +3703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -3710,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -3739,7 +3761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -3768,7 +3790,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3797,7 +3819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -3826,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -3855,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -3884,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -3913,7 +3935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -3942,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -3971,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>113</v>
       </c>
@@ -4000,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -4029,7 +4051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -4058,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -4087,7 +4109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -4116,7 +4138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -4145,7 +4167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -4174,7 +4196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -4203,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -4232,7 +4254,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -4261,7 +4283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -4319,7 +4341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -4348,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -4377,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -4406,7 +4428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -4435,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -4464,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -4493,7 +4515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -4522,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -4551,7 +4573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -4580,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -4609,7 +4631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>135</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -4667,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>137</v>
       </c>
@@ -4696,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -4725,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>139</v>
       </c>
@@ -4754,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>140</v>
       </c>
@@ -4783,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>141</v>
       </c>
@@ -4812,7 +4834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -4841,7 +4863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>143</v>
       </c>
